--- a/ru/downloads/data-excel/17.1.2.xlsx
+++ b/ru/downloads/data-excel/17.1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
     <col min="1" max="3" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="4"/>
@@ -619,7 +619,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -668,8 +668,11 @@
       <c r="P4" s="13">
         <v>2019</v>
       </c>
+      <c r="Q4" s="13">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -718,8 +721,11 @@
       <c r="P5" s="19">
         <v>72.599999999999994</v>
       </c>
+      <c r="Q5" s="19">
+        <v>70.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>

--- a/ru/downloads/data-excel/17.1.2.xlsx
+++ b/ru/downloads/data-excel/17.1.2.xlsx
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
     <col min="1" max="3" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="4"/>
@@ -619,7 +619,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -671,8 +671,11 @@
       <c r="Q4" s="13">
         <v>2020</v>
       </c>
+      <c r="R4" s="13">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -724,8 +727,11 @@
       <c r="Q5" s="19">
         <v>70.3</v>
       </c>
+      <c r="R5" s="19">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>

--- a/ru/downloads/data-excel/17.1.2.xlsx
+++ b/ru/downloads/data-excel/17.1.2.xlsx
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
     <col min="1" max="3" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="4"/>
@@ -619,7 +619,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -674,8 +674,11 @@
       <c r="R4" s="13">
         <v>2021</v>
       </c>
+      <c r="S4" s="13">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -730,8 +733,11 @@
       <c r="R5" s="19">
         <v>72</v>
       </c>
+      <c r="S5" s="19">
+        <v>76.099999999999994</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>

--- a/ru/downloads/data-excel/17.1.2.xlsx
+++ b/ru/downloads/data-excel/17.1.2.xlsx
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
     <col min="1" max="3" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="4"/>
@@ -619,7 +619,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -674,11 +674,8 @@
       <c r="R4" s="13">
         <v>2021</v>
       </c>
-      <c r="S4" s="13">
-        <v>2022</v>
-      </c>
     </row>
-    <row r="5" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -733,11 +730,8 @@
       <c r="R5" s="19">
         <v>72</v>
       </c>
-      <c r="S5" s="19">
-        <v>76.099999999999994</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>

--- a/ru/downloads/data-excel/17.1.2.xlsx
+++ b/ru/downloads/data-excel/17.1.2.xlsx
@@ -549,18 +549,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="36.28515625" customWidth="1"/>
+    <col min="1" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="20" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -582,7 +581,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -604,7 +603,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="4"/>
@@ -619,7 +618,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -677,8 +676,11 @@
       <c r="S4" s="13">
         <v>2022</v>
       </c>
+      <c r="T4" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -736,8 +738,11 @@
       <c r="S5" s="19">
         <v>76.099999999999994</v>
       </c>
+      <c r="T5" s="19">
+        <v>75.099999999999994</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
